--- a/Symphony/2021/OCTOBER/All Details/04.10.2021/MC Bank Statement October-2021.xlsx
+++ b/Symphony/2021/OCTOBER/All Details/04.10.2021/MC Bank Statement October-2021.xlsx
@@ -3044,6 +3044,12 @@
     <xf numFmtId="0" fontId="45" fillId="34" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3187,12 +3193,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3860,33 +3860,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="318"/>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
+      <c r="A1" s="320"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="319"/>
-      <c r="B2" s="316" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="319"/>
-      <c r="B3" s="317" t="s">
+      <c r="A3" s="321"/>
+      <c r="B3" s="319" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="321"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -3904,7 +3904,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="319"/>
+      <c r="A5" s="321"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="319"/>
+      <c r="A6" s="321"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -3934,7 +3934,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="319"/>
+      <c r="A7" s="321"/>
       <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="319"/>
+      <c r="A8" s="321"/>
       <c r="B8" s="28" t="s">
         <v>71</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="319"/>
+      <c r="A9" s="321"/>
       <c r="B9" s="28" t="s">
         <v>73</v>
       </c>
@@ -3991,7 +3991,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="319"/>
+      <c r="A10" s="321"/>
       <c r="B10" s="28" t="s">
         <v>74</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="319"/>
+      <c r="A11" s="321"/>
       <c r="B11" s="28" t="s">
         <v>75</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="319"/>
+      <c r="A12" s="321"/>
       <c r="B12" s="28" t="s">
         <v>76</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="319"/>
+      <c r="A13" s="321"/>
       <c r="B13" s="28" t="s">
         <v>77</v>
       </c>
@@ -4067,7 +4067,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="319"/>
+      <c r="A14" s="321"/>
       <c r="B14" s="28" t="s">
         <v>78</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="319"/>
+      <c r="A15" s="321"/>
       <c r="B15" s="28" t="s">
         <v>79</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="319"/>
+      <c r="A16" s="321"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -4118,7 +4118,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="319"/>
+      <c r="A17" s="321"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4131,7 +4131,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="319"/>
+      <c r="A18" s="321"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4144,7 +4144,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="319"/>
+      <c r="A19" s="321"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4157,7 +4157,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="319"/>
+      <c r="A20" s="321"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4170,7 +4170,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="319"/>
+      <c r="A21" s="321"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4183,7 +4183,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="319"/>
+      <c r="A22" s="321"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -4196,7 +4196,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="319"/>
+      <c r="A23" s="321"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4209,7 +4209,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="319"/>
+      <c r="A24" s="321"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4222,7 +4222,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="319"/>
+      <c r="A25" s="321"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4235,7 +4235,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="319"/>
+      <c r="A26" s="321"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -4248,7 +4248,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="319"/>
+      <c r="A27" s="321"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4261,7 +4261,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="319"/>
+      <c r="A28" s="321"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4274,7 +4274,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="319"/>
+      <c r="A29" s="321"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4287,7 +4287,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="319"/>
+      <c r="A30" s="321"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4300,7 +4300,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="319"/>
+      <c r="A31" s="321"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4313,7 +4313,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="319"/>
+      <c r="A32" s="321"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4326,7 +4326,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="319"/>
+      <c r="A33" s="321"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -4339,7 +4339,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="319"/>
+      <c r="A34" s="321"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4352,7 +4352,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="319"/>
+      <c r="A35" s="321"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4365,7 +4365,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="319"/>
+      <c r="A36" s="321"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4378,7 +4378,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="319"/>
+      <c r="A37" s="321"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4391,7 +4391,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="319"/>
+      <c r="A38" s="321"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4404,7 +4404,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="319"/>
+      <c r="A39" s="321"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4417,7 +4417,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="319"/>
+      <c r="A40" s="321"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4430,7 +4430,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="319"/>
+      <c r="A41" s="321"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4443,7 +4443,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="319"/>
+      <c r="A42" s="321"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4456,7 +4456,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="319"/>
+      <c r="A43" s="321"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4469,7 +4469,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="319"/>
+      <c r="A44" s="321"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -4482,7 +4482,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="319"/>
+      <c r="A45" s="321"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4495,7 +4495,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="319"/>
+      <c r="A46" s="321"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4508,7 +4508,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="319"/>
+      <c r="A47" s="321"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4521,7 +4521,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="319"/>
+      <c r="A48" s="321"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4534,7 +4534,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="319"/>
+      <c r="A49" s="321"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4547,7 +4547,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="319"/>
+      <c r="A50" s="321"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4560,7 +4560,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="319"/>
+      <c r="A51" s="321"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4573,7 +4573,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="319"/>
+      <c r="A52" s="321"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4586,7 +4586,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="319"/>
+      <c r="A53" s="321"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4599,7 +4599,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="319"/>
+      <c r="A54" s="321"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4612,7 +4612,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="319"/>
+      <c r="A55" s="321"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4624,7 +4624,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="319"/>
+      <c r="A56" s="321"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4636,7 +4636,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="319"/>
+      <c r="A57" s="321"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4648,7 +4648,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="319"/>
+      <c r="A58" s="321"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4660,7 +4660,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="319"/>
+      <c r="A59" s="321"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4672,7 +4672,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="319"/>
+      <c r="A60" s="321"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4684,7 +4684,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="319"/>
+      <c r="A61" s="321"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4696,7 +4696,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="319"/>
+      <c r="A62" s="321"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4708,7 +4708,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="319"/>
+      <c r="A63" s="321"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4720,7 +4720,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="319"/>
+      <c r="A64" s="321"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -4732,7 +4732,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="319"/>
+      <c r="A65" s="321"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -4744,7 +4744,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="319"/>
+      <c r="A66" s="321"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -4756,7 +4756,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="319"/>
+      <c r="A67" s="321"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -4768,7 +4768,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="319"/>
+      <c r="A68" s="321"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -4780,7 +4780,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="319"/>
+      <c r="A69" s="321"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -4792,7 +4792,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="319"/>
+      <c r="A70" s="321"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -4804,7 +4804,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="319"/>
+      <c r="A71" s="321"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -4816,7 +4816,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="319"/>
+      <c r="A72" s="321"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -4828,7 +4828,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="319"/>
+      <c r="A73" s="321"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -4840,7 +4840,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="319"/>
+      <c r="A74" s="321"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -4852,7 +4852,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="319"/>
+      <c r="A75" s="321"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -4864,7 +4864,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="319"/>
+      <c r="A76" s="321"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -4876,7 +4876,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="319"/>
+      <c r="A77" s="321"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -4888,7 +4888,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="319"/>
+      <c r="A78" s="321"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -4900,7 +4900,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="319"/>
+      <c r="A79" s="321"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -4912,7 +4912,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="319"/>
+      <c r="A80" s="321"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -4924,7 +4924,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="319"/>
+      <c r="A81" s="321"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -4936,7 +4936,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="319"/>
+      <c r="A82" s="321"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -4948,7 +4948,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="319"/>
+      <c r="A83" s="321"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -5005,33 +5005,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="318"/>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
+      <c r="A1" s="320"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="319"/>
-      <c r="B2" s="316" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="319"/>
-      <c r="B3" s="317" t="s">
+      <c r="A3" s="321"/>
+      <c r="B3" s="319" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="321"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5049,7 +5049,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="319"/>
+      <c r="A5" s="321"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -5067,7 +5067,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="319"/>
+      <c r="A6" s="321"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -5079,7 +5079,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="319"/>
+      <c r="A7" s="321"/>
       <c r="B7" s="28" t="s">
         <v>208</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="319"/>
+      <c r="A8" s="321"/>
       <c r="B8" s="28" t="s">
         <v>212</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="319"/>
+      <c r="A9" s="321"/>
       <c r="B9" s="28" t="s">
         <v>216</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="319"/>
+      <c r="A10" s="321"/>
       <c r="B10" s="28"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -5149,7 +5149,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="319"/>
+      <c r="A11" s="321"/>
       <c r="B11" s="28"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -5162,7 +5162,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="319"/>
+      <c r="A12" s="321"/>
       <c r="B12" s="28"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -5175,7 +5175,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="319"/>
+      <c r="A13" s="321"/>
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -5188,7 +5188,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="319"/>
+      <c r="A14" s="321"/>
       <c r="B14" s="28"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -5201,7 +5201,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="319"/>
+      <c r="A15" s="321"/>
       <c r="B15" s="28"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -5214,7 +5214,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="319"/>
+      <c r="A16" s="321"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -5227,7 +5227,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="319"/>
+      <c r="A17" s="321"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -5240,7 +5240,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="319"/>
+      <c r="A18" s="321"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -5253,7 +5253,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="319"/>
+      <c r="A19" s="321"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="30"/>
@@ -5266,7 +5266,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="319"/>
+      <c r="A20" s="321"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -5279,7 +5279,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="319"/>
+      <c r="A21" s="321"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -5292,7 +5292,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="319"/>
+      <c r="A22" s="321"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -5305,7 +5305,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="319"/>
+      <c r="A23" s="321"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -5318,7 +5318,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="319"/>
+      <c r="A24" s="321"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -5331,7 +5331,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="319"/>
+      <c r="A25" s="321"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -5344,7 +5344,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="319"/>
+      <c r="A26" s="321"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -5357,7 +5357,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="319"/>
+      <c r="A27" s="321"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -5370,7 +5370,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="319"/>
+      <c r="A28" s="321"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -5383,7 +5383,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="319"/>
+      <c r="A29" s="321"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -5396,7 +5396,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="319"/>
+      <c r="A30" s="321"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -5409,7 +5409,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="319"/>
+      <c r="A31" s="321"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -5422,7 +5422,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="319"/>
+      <c r="A32" s="321"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -5435,7 +5435,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="319"/>
+      <c r="A33" s="321"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -5448,7 +5448,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="319"/>
+      <c r="A34" s="321"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -5461,7 +5461,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="319"/>
+      <c r="A35" s="321"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -5474,7 +5474,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="319"/>
+      <c r="A36" s="321"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -5487,7 +5487,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="319"/>
+      <c r="A37" s="321"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -5500,7 +5500,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="319"/>
+      <c r="A38" s="321"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -5513,7 +5513,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="319"/>
+      <c r="A39" s="321"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -5526,7 +5526,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="319"/>
+      <c r="A40" s="321"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -5539,7 +5539,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="319"/>
+      <c r="A41" s="321"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -5552,7 +5552,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="319"/>
+      <c r="A42" s="321"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -5565,7 +5565,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="319"/>
+      <c r="A43" s="321"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -5578,7 +5578,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="319"/>
+      <c r="A44" s="321"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -5591,7 +5591,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="319"/>
+      <c r="A45" s="321"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -5604,7 +5604,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="319"/>
+      <c r="A46" s="321"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -5617,7 +5617,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="319"/>
+      <c r="A47" s="321"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -5630,7 +5630,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="319"/>
+      <c r="A48" s="321"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -5643,7 +5643,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="319"/>
+      <c r="A49" s="321"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -5656,7 +5656,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="319"/>
+      <c r="A50" s="321"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -5669,7 +5669,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="319"/>
+      <c r="A51" s="321"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -5682,7 +5682,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="319"/>
+      <c r="A52" s="321"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -5695,7 +5695,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="319"/>
+      <c r="A53" s="321"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -5708,7 +5708,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="319"/>
+      <c r="A54" s="321"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -5721,7 +5721,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="319"/>
+      <c r="A55" s="321"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -5733,7 +5733,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="319"/>
+      <c r="A56" s="321"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -5745,7 +5745,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="319"/>
+      <c r="A57" s="321"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -5757,7 +5757,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="319"/>
+      <c r="A58" s="321"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -5769,7 +5769,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="319"/>
+      <c r="A59" s="321"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -5781,7 +5781,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="319"/>
+      <c r="A60" s="321"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -5793,7 +5793,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="319"/>
+      <c r="A61" s="321"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -5805,7 +5805,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="319"/>
+      <c r="A62" s="321"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -5817,7 +5817,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="319"/>
+      <c r="A63" s="321"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -5829,7 +5829,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="319"/>
+      <c r="A64" s="321"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -5841,7 +5841,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="319"/>
+      <c r="A65" s="321"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -5853,7 +5853,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="319"/>
+      <c r="A66" s="321"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -5865,7 +5865,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="319"/>
+      <c r="A67" s="321"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -5877,7 +5877,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="319"/>
+      <c r="A68" s="321"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -5889,7 +5889,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="319"/>
+      <c r="A69" s="321"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -5901,7 +5901,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="319"/>
+      <c r="A70" s="321"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -5913,7 +5913,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="319"/>
+      <c r="A71" s="321"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -5925,7 +5925,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="319"/>
+      <c r="A72" s="321"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -5937,7 +5937,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="319"/>
+      <c r="A73" s="321"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -5949,7 +5949,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="319"/>
+      <c r="A74" s="321"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -5961,7 +5961,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="319"/>
+      <c r="A75" s="321"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -5973,7 +5973,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="319"/>
+      <c r="A76" s="321"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -5985,7 +5985,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="319"/>
+      <c r="A77" s="321"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -5997,7 +5997,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="319"/>
+      <c r="A78" s="321"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -6009,7 +6009,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="319"/>
+      <c r="A79" s="321"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -6021,7 +6021,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="319"/>
+      <c r="A80" s="321"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -6033,7 +6033,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="319"/>
+      <c r="A81" s="321"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -6045,7 +6045,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="319"/>
+      <c r="A82" s="321"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -6057,7 +6057,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="319"/>
+      <c r="A83" s="321"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -6109,67 +6109,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="326" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="324"/>
-      <c r="O1" s="324"/>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
     </row>
     <row r="2" spans="1:24" s="82" customFormat="1" ht="18">
-      <c r="A2" s="325" t="s">
+      <c r="A2" s="327" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="325"/>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="325"/>
-      <c r="H2" s="325"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="325"/>
-      <c r="K2" s="325"/>
-      <c r="L2" s="325"/>
-      <c r="M2" s="325"/>
-      <c r="N2" s="325"/>
-      <c r="O2" s="325"/>
-      <c r="P2" s="325"/>
-      <c r="Q2" s="325"/>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="327"/>
+      <c r="O2" s="327"/>
+      <c r="P2" s="327"/>
+      <c r="Q2" s="327"/>
     </row>
     <row r="3" spans="1:24" s="83" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="326" t="s">
+      <c r="A3" s="328" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="327"/>
-      <c r="O3" s="327"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="328"/>
+      <c r="B3" s="329"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
+      <c r="O3" s="329"/>
+      <c r="P3" s="329"/>
+      <c r="Q3" s="330"/>
       <c r="S3" s="65"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6178,52 +6178,52 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="331" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="331" t="s">
+      <c r="B4" s="333" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="320" t="s">
+      <c r="C4" s="322" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="320" t="s">
+      <c r="D4" s="322" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="322" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="320" t="s">
+      <c r="F4" s="322" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="320" t="s">
+      <c r="G4" s="322" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="320" t="s">
+      <c r="H4" s="322" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="320" t="s">
+      <c r="I4" s="322" t="s">
         <v>173</v>
       </c>
-      <c r="J4" s="320" t="s">
+      <c r="J4" s="322" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="320" t="s">
+      <c r="K4" s="322" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="320" t="s">
+      <c r="L4" s="322" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="320" t="s">
+      <c r="M4" s="322" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="320" t="s">
+      <c r="N4" s="322" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="322" t="s">
+      <c r="O4" s="324" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="333" t="s">
+      <c r="P4" s="335" t="s">
         <v>82</v>
       </c>
       <c r="Q4" s="146" t="s">
@@ -6236,22 +6236,22 @@
       <c r="W4" s="86"/>
     </row>
     <row r="5" spans="1:24" s="84" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="330"/>
-      <c r="B5" s="332"/>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="321"/>
-      <c r="N5" s="321"/>
-      <c r="O5" s="323"/>
-      <c r="P5" s="334"/>
+      <c r="A5" s="332"/>
+      <c r="B5" s="334"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="323"/>
+      <c r="G5" s="323"/>
+      <c r="H5" s="323"/>
+      <c r="I5" s="323"/>
+      <c r="J5" s="323"/>
+      <c r="K5" s="323"/>
+      <c r="L5" s="323"/>
+      <c r="M5" s="323"/>
+      <c r="N5" s="323"/>
+      <c r="O5" s="325"/>
+      <c r="P5" s="336"/>
       <c r="Q5" s="147" t="s">
         <v>56</v>
       </c>
@@ -9197,11 +9197,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9216,6 +9211,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9256,14 +9256,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="341" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="341"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="343"/>
       <c r="G1" s="77"/>
       <c r="H1" s="77"/>
       <c r="I1" s="163"/>
@@ -9357,14 +9357,14 @@
       <c r="CS1" s="158"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="342" t="s">
+      <c r="A2" s="344" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="344"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="346"/>
       <c r="G2" s="77"/>
       <c r="H2" s="77"/>
       <c r="I2" s="163"/>
@@ -9458,14 +9458,14 @@
       <c r="CS2" s="158"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="347" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="347"/>
+      <c r="B3" s="348"/>
+      <c r="C3" s="348"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="348"/>
+      <c r="F3" s="349"/>
       <c r="G3" s="77"/>
       <c r="H3" s="77"/>
       <c r="I3" s="163"/>
@@ -12774,12 +12774,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="153"/>
-      <c r="B35" s="337" t="s">
+      <c r="B35" s="339" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="337"/>
-      <c r="D35" s="337"/>
-      <c r="E35" s="337"/>
+      <c r="C35" s="339"/>
+      <c r="D35" s="339"/>
+      <c r="E35" s="339"/>
       <c r="F35" s="154"/>
       <c r="G35" s="159"/>
       <c r="H35" s="159"/>
@@ -13624,10 +13624,10 @@
       <c r="D43" s="234"/>
       <c r="E43" s="197"/>
       <c r="F43" s="154"/>
-      <c r="G43" s="338"/>
-      <c r="H43" s="338"/>
-      <c r="I43" s="338"/>
-      <c r="J43" s="338"/>
+      <c r="G43" s="340"/>
+      <c r="H43" s="340"/>
+      <c r="I43" s="340"/>
+      <c r="J43" s="340"/>
       <c r="K43" s="77"/>
       <c r="L43" s="163"/>
       <c r="M43" s="77"/>
@@ -22217,11 +22217,11 @@
       <c r="CS118" s="158"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="335" t="s">
+      <c r="A119" s="337" t="s">
         <v>42</v>
       </c>
-      <c r="B119" s="336"/>
-      <c r="C119" s="348"/>
+      <c r="B119" s="338"/>
+      <c r="C119" s="350"/>
       <c r="D119" s="240">
         <f>SUM(D37:D118)</f>
         <v>2253714</v>
@@ -22424,11 +22424,11 @@
       <c r="CS120" s="158"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="335" t="s">
+      <c r="A121" s="337" t="s">
         <v>43</v>
       </c>
-      <c r="B121" s="336"/>
-      <c r="C121" s="336"/>
+      <c r="B121" s="338"/>
+      <c r="C121" s="338"/>
       <c r="D121" s="240">
         <f>D119+M121</f>
         <v>2253714</v>
@@ -33663,8 +33663,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33682,35 +33682,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="351" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="351"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="353"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="358" t="s">
+      <c r="A2" s="360" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="359"/>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="360"/>
+      <c r="B2" s="361"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="362"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="352" t="s">
+      <c r="A3" s="354" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="353"/>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="354"/>
+      <c r="B3" s="355"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="356"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -33737,13 +33737,13 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="26.25" customHeight="1">
-      <c r="A4" s="361" t="s">
+      <c r="A4" s="363" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="362"/>
-      <c r="C4" s="362"/>
-      <c r="D4" s="362"/>
-      <c r="E4" s="363"/>
+      <c r="B4" s="364"/>
+      <c r="C4" s="364"/>
+      <c r="D4" s="364"/>
+      <c r="E4" s="365"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
       <c r="H4" s="8"/>
@@ -33770,13 +33770,13 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="24" thickBot="1">
-      <c r="A5" s="361" t="s">
+      <c r="A5" s="363" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="362"/>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="363"/>
+      <c r="B5" s="364"/>
+      <c r="C5" s="364"/>
+      <c r="D5" s="364"/>
+      <c r="E5" s="365"/>
       <c r="F5" s="5"/>
       <c r="G5" s="54"/>
       <c r="H5" s="6"/>
@@ -34250,13 +34250,13 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="355" t="s">
+      <c r="A18" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="356"/>
-      <c r="C18" s="356"/>
-      <c r="D18" s="356"/>
-      <c r="E18" s="357"/>
+      <c r="B18" s="358"/>
+      <c r="C18" s="358"/>
+      <c r="D18" s="358"/>
+      <c r="E18" s="359"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="17"/>
@@ -34514,10 +34514,10 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="21.75">
-      <c r="A25" s="364" t="s">
+      <c r="A25" s="316" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="365">
+      <c r="B25" s="317">
         <v>659210</v>
       </c>
       <c r="C25" s="141"/>
